--- a/HRMS Project Gantt Chart.xlsx
+++ b/HRMS Project Gantt Chart.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/965930adaf7c1b62/Documents/Advanced_Computing_Suffolk/Managing Projects and Teams/Assignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="863" documentId="8_{5A5772CC-E7DF-4348-8D9C-C3803FEA4960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1270B2C8-C229-425E-AB6D-73C5C7D510CC}"/>
+  <xr:revisionPtr revIDLastSave="870" documentId="8_{5A5772CC-E7DF-4348-8D9C-C3803FEA4960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56BF3390-826A-4CCF-A6F8-1DB81B5C5801}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{CCBA6889-AF25-4833-9580-F861964758E5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{CCBA6889-AF25-4833-9580-F861964758E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$AN$69</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -886,8 +889,7 @@
   <dimension ref="A1:AN78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F37" sqref="F37:F38"/>
+      <selection sqref="A1:AN69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4299,6 +4301,7 @@
     <mergeCell ref="E5:E6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="66" scale="90" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/HRMS Project Gantt Chart.xlsx
+++ b/HRMS Project Gantt Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/965930adaf7c1b62/Documents/Advanced_Computing_Suffolk/Managing Projects and Teams/Assignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="870" documentId="8_{5A5772CC-E7DF-4348-8D9C-C3803FEA4960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56BF3390-826A-4CCF-A6F8-1DB81B5C5801}"/>
+  <xr:revisionPtr revIDLastSave="873" documentId="8_{5A5772CC-E7DF-4348-8D9C-C3803FEA4960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B2ECA51-E3CD-4EE7-B49E-63277475DF4A}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{CCBA6889-AF25-4833-9580-F861964758E5}"/>
   </bookViews>
@@ -512,18 +512,6 @@
       <alignment textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -546,6 +534,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -889,7 +889,8 @@
   <dimension ref="A1:AN78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:AN69"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -901,48 +902,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="17"/>
-      <c r="AG1" s="17"/>
-      <c r="AH1" s="17"/>
-      <c r="AI1" s="17"/>
-      <c r="AJ1" s="17"/>
-      <c r="AK1" s="17"/>
-      <c r="AL1" s="17"/>
-      <c r="AM1" s="17"/>
-      <c r="AN1" s="17"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="13"/>
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="13"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="13"/>
+      <c r="AI1" s="13"/>
+      <c r="AJ1" s="13"/>
+      <c r="AK1" s="13"/>
+      <c r="AL1" s="13"/>
+      <c r="AM1" s="13"/>
+      <c r="AN1" s="13"/>
     </row>
     <row r="2" spans="1:40" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
@@ -1059,28 +1060,28 @@
       <c r="AL2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AM2" s="18" t="s">
+      <c r="AM2" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="AN2" s="18"/>
+      <c r="AN2" s="14"/>
     </row>
     <row r="3" spans="1:40" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="13"/>
+      <c r="F3" s="21"/>
       <c r="G3" s="6"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
@@ -1113,18 +1114,18 @@
       <c r="AJ3" s="5"/>
       <c r="AK3" s="5"/>
       <c r="AL3" s="2"/>
-      <c r="AM3" s="21"/>
-      <c r="AN3" s="22" t="s">
+      <c r="AM3" s="17"/>
+      <c r="AN3" s="18" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:40" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="14"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="22"/>
       <c r="G4" s="10"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
@@ -1157,26 +1158,26 @@
       <c r="AJ4" s="5"/>
       <c r="AK4" s="5"/>
       <c r="AL4" s="1"/>
-      <c r="AM4" s="21"/>
-      <c r="AN4" s="22"/>
+      <c r="AM4" s="17"/>
+      <c r="AN4" s="18"/>
     </row>
     <row r="5" spans="1:40" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="F5" s="13"/>
+      <c r="F5" s="21"/>
       <c r="G5" s="7"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
@@ -1209,18 +1210,18 @@
       <c r="AJ5" s="5"/>
       <c r="AK5" s="5"/>
       <c r="AL5" s="1"/>
-      <c r="AM5" s="19"/>
-      <c r="AN5" s="16" t="s">
+      <c r="AM5" s="15"/>
+      <c r="AN5" s="12" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:40" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="14"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="22"/>
       <c r="G6" s="10"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
@@ -1253,26 +1254,26 @@
       <c r="AJ6" s="5"/>
       <c r="AK6" s="5"/>
       <c r="AL6" s="1"/>
-      <c r="AM6" s="20"/>
-      <c r="AN6" s="16"/>
+      <c r="AM6" s="16"/>
+      <c r="AN6" s="12"/>
     </row>
     <row r="7" spans="1:40" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="F7" s="11"/>
+      <c r="F7" s="19"/>
       <c r="G7" s="7"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
@@ -1305,18 +1306,18 @@
       <c r="AJ7" s="5"/>
       <c r="AK7" s="5"/>
       <c r="AL7" s="1"/>
-      <c r="AM7" s="15"/>
-      <c r="AN7" s="16" t="s">
+      <c r="AM7" s="11"/>
+      <c r="AN7" s="12" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
       <c r="G8" s="10"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
@@ -1349,26 +1350,26 @@
       <c r="AJ8" s="5"/>
       <c r="AK8" s="5"/>
       <c r="AL8" s="1"/>
-      <c r="AM8" s="15"/>
-      <c r="AN8" s="16"/>
-    </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A9" s="11" t="s">
+      <c r="AM8" s="11"/>
+      <c r="AN8" s="12"/>
+    </row>
+    <row r="9" spans="1:40" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="F9" s="11"/>
+      <c r="F9" s="19"/>
       <c r="G9" s="7"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
@@ -1403,13 +1404,13 @@
       <c r="AL9" s="1"/>
     </row>
     <row r="10" spans="1:40" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="1"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="10"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="1"/>
@@ -1443,22 +1444,22 @@
       <c r="AL10" s="1"/>
     </row>
     <row r="11" spans="1:40" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="F11" s="11"/>
+      <c r="F11" s="19"/>
       <c r="G11" s="1"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
@@ -1493,12 +1494,12 @@
       <c r="AL11" s="1"/>
     </row>
     <row r="12" spans="1:40" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
       <c r="G12" s="1"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
@@ -1533,22 +1534,22 @@
       <c r="AL12" s="1"/>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="F13" s="11"/>
+      <c r="F13" s="19"/>
       <c r="G13" s="1"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
@@ -1583,12 +1584,12 @@
       <c r="AL13" s="1"/>
     </row>
     <row r="14" spans="1:40" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
       <c r="G14" s="1"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
@@ -1623,22 +1624,22 @@
       <c r="AL14" s="1"/>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="F15" s="11"/>
+      <c r="F15" s="19"/>
       <c r="G15" s="1"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
@@ -1673,12 +1674,12 @@
       <c r="AL15" s="1"/>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
       <c r="G16" s="1"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
@@ -1713,22 +1714,22 @@
       <c r="AL16" s="1"/>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="F17" s="11"/>
+      <c r="F17" s="19"/>
       <c r="G17" s="1"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
@@ -1763,12 +1764,12 @@
       <c r="AL17" s="1"/>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
       <c r="G18" s="1"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
@@ -1803,22 +1804,22 @@
       <c r="AL18" s="1"/>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="F19" s="11"/>
+      <c r="F19" s="19"/>
       <c r="G19" s="1"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
@@ -1853,12 +1854,12 @@
       <c r="AL19" s="1"/>
     </row>
     <row r="20" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
       <c r="G20" s="1"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
@@ -1893,22 +1894,22 @@
       <c r="AL20" s="1"/>
     </row>
     <row r="21" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="F21" s="11"/>
+      <c r="F21" s="19"/>
       <c r="G21" s="1"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
@@ -1943,12 +1944,12 @@
       <c r="AL21" s="1"/>
     </row>
     <row r="22" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
       <c r="G22" s="1"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
@@ -1983,22 +1984,22 @@
       <c r="AL22" s="1"/>
     </row>
     <row r="23" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="F23" s="11"/>
+      <c r="F23" s="19"/>
       <c r="G23" s="1"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
@@ -2033,12 +2034,12 @@
       <c r="AL23" s="1"/>
     </row>
     <row r="24" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
       <c r="G24" s="1"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
@@ -2073,22 +2074,22 @@
       <c r="AL24" s="1"/>
     </row>
     <row r="25" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="F25" s="11"/>
+      <c r="F25" s="19"/>
       <c r="G25" s="1"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
@@ -2123,12 +2124,12 @@
       <c r="AL25" s="1"/>
     </row>
     <row r="26" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
       <c r="G26" s="1"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
@@ -2163,22 +2164,22 @@
       <c r="AL26" s="1"/>
     </row>
     <row r="27" spans="1:38" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F27" s="11"/>
+      <c r="F27" s="19"/>
       <c r="G27" s="1"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
@@ -2213,12 +2214,12 @@
       <c r="AL27" s="1"/>
     </row>
     <row r="28" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
       <c r="G28" s="1"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
@@ -2253,22 +2254,22 @@
       <c r="AL28" s="1"/>
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="F29" s="11"/>
+      <c r="F29" s="19"/>
       <c r="G29" s="1"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
@@ -2303,12 +2304,12 @@
       <c r="AL29" s="1"/>
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
       <c r="G30" s="1"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
@@ -2343,22 +2344,22 @@
       <c r="AL30" s="1"/>
     </row>
     <row r="31" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="F31" s="11"/>
+      <c r="F31" s="19"/>
       <c r="G31" s="1"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
@@ -2393,12 +2394,12 @@
       <c r="AL31" s="1"/>
     </row>
     <row r="32" spans="1:38" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
       <c r="G32" s="1"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
@@ -2433,22 +2434,22 @@
       <c r="AL32" s="1"/>
     </row>
     <row r="33" spans="1:38" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="F33" s="11"/>
+      <c r="F33" s="19"/>
       <c r="G33" s="1"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
@@ -2483,12 +2484,12 @@
       <c r="AL33" s="1"/>
     </row>
     <row r="34" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
       <c r="G34" s="1"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
@@ -2523,22 +2524,22 @@
       <c r="AL34" s="1"/>
     </row>
     <row r="35" spans="1:38" ht="43" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E35" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="F35" s="11"/>
+      <c r="F35" s="19"/>
       <c r="G35" s="1"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
@@ -2573,12 +2574,12 @@
       <c r="AL35" s="1"/>
     </row>
     <row r="36" spans="1:38" ht="41" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
+      <c r="A36" s="20"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
       <c r="G36" s="1"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
@@ -2613,22 +2614,22 @@
       <c r="AL36" s="1"/>
     </row>
     <row r="37" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="E37" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="F37" s="11"/>
+      <c r="F37" s="19"/>
       <c r="G37" s="1"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
@@ -2663,12 +2664,12 @@
       <c r="AL37" s="1"/>
     </row>
     <row r="38" spans="1:38" ht="26" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
       <c r="G38" s="1"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
@@ -2703,22 +2704,22 @@
       <c r="AL38" s="1"/>
     </row>
     <row r="39" spans="1:38" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D39" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="E39" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="F39" s="11"/>
+      <c r="F39" s="19"/>
       <c r="G39" s="1"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
@@ -2753,12 +2754,12 @@
       <c r="AL39" s="1"/>
     </row>
     <row r="40" spans="1:38" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
+      <c r="A40" s="20"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
       <c r="G40" s="1"/>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
@@ -2793,22 +2794,22 @@
       <c r="AL40" s="1"/>
     </row>
     <row r="41" spans="1:38" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="D41" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="E41" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="F41" s="11"/>
+      <c r="F41" s="19"/>
       <c r="G41" s="1"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
@@ -2843,12 +2844,12 @@
       <c r="AL41" s="1"/>
     </row>
     <row r="42" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="12"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
+      <c r="A42" s="20"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
       <c r="G42" s="1"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
@@ -2883,22 +2884,22 @@
       <c r="AL42" s="1"/>
     </row>
     <row r="43" spans="1:38" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D43" s="13" t="s">
+      <c r="D43" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E43" s="11" t="s">
+      <c r="E43" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="F43" s="11"/>
+      <c r="F43" s="19"/>
       <c r="G43" s="1"/>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
@@ -2933,12 +2934,12 @@
       <c r="AL43" s="1"/>
     </row>
     <row r="44" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="12"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
+      <c r="A44" s="20"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
       <c r="G44" s="1"/>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
@@ -2973,22 +2974,22 @@
       <c r="AL44" s="1"/>
     </row>
     <row r="45" spans="1:38" ht="36.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D45" s="13" t="s">
+      <c r="D45" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E45" s="11" t="s">
+      <c r="E45" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="F45" s="11"/>
+      <c r="F45" s="19"/>
       <c r="G45" s="1"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
@@ -3023,12 +3024,12 @@
       <c r="AL45" s="1"/>
     </row>
     <row r="46" spans="1:38" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="12"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
+      <c r="A46" s="20"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
       <c r="G46" s="1"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
@@ -3063,22 +3064,22 @@
       <c r="AL46" s="1"/>
     </row>
     <row r="47" spans="1:38" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C47" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D47" s="13" t="s">
+      <c r="D47" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E47" s="11" t="s">
+      <c r="E47" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="F47" s="11"/>
+      <c r="F47" s="19"/>
       <c r="G47" s="1"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
@@ -3113,12 +3114,12 @@
       <c r="AL47" s="1"/>
     </row>
     <row r="48" spans="1:38" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="12"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
+      <c r="A48" s="20"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
       <c r="G48" s="1"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
@@ -3153,22 +3154,22 @@
       <c r="AL48" s="1"/>
     </row>
     <row r="49" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C49" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D49" s="13" t="s">
+      <c r="D49" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E49" s="11" t="s">
+      <c r="E49" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="F49" s="11"/>
+      <c r="F49" s="19"/>
       <c r="G49" s="1"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
@@ -3203,12 +3204,12 @@
       <c r="AL49" s="1"/>
     </row>
     <row r="50" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A50" s="12"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
+      <c r="A50" s="20"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
       <c r="G50" s="1"/>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
@@ -3243,22 +3244,22 @@
       <c r="AL50" s="1"/>
     </row>
     <row r="51" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B51" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C51" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="D51" s="13" t="s">
+      <c r="D51" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="E51" s="11" t="s">
+      <c r="E51" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="F51" s="11"/>
+      <c r="F51" s="19"/>
       <c r="G51" s="1"/>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
@@ -3293,12 +3294,12 @@
       <c r="AL51" s="1"/>
     </row>
     <row r="52" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A52" s="12"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
+      <c r="A52" s="20"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
       <c r="G52" s="1"/>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
@@ -3333,22 +3334,22 @@
       <c r="AL52" s="1"/>
     </row>
     <row r="53" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A53" s="11" t="s">
+      <c r="A53" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B53" s="11" t="s">
+      <c r="B53" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C53" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="D53" s="13" t="s">
+      <c r="D53" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="E53" s="11" t="s">
+      <c r="E53" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="F53" s="11"/>
+      <c r="F53" s="19"/>
       <c r="G53" s="1"/>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
@@ -3383,12 +3384,12 @@
       <c r="AL53" s="1"/>
     </row>
     <row r="54" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A54" s="12"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
+      <c r="A54" s="20"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
       <c r="G54" s="1"/>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
@@ -3423,22 +3424,22 @@
       <c r="AL54" s="1"/>
     </row>
     <row r="55" spans="1:38" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="11" t="s">
+      <c r="A55" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="B55" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="C55" s="13" t="s">
+      <c r="C55" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="D55" s="13" t="s">
+      <c r="D55" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="E55" s="11" t="s">
+      <c r="E55" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="F55" s="11"/>
+      <c r="F55" s="19"/>
       <c r="G55" s="1"/>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
@@ -3473,12 +3474,12 @@
       <c r="AL55" s="1"/>
     </row>
     <row r="56" spans="1:38" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="12"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
+      <c r="A56" s="20"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
       <c r="G56" s="1"/>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
@@ -3513,22 +3514,22 @@
       <c r="AL56" s="1"/>
     </row>
     <row r="57" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A57" s="11" t="s">
+      <c r="A57" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B57" s="11" t="s">
+      <c r="B57" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="C57" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="D57" s="13" t="s">
+      <c r="D57" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="E57" s="11" t="s">
+      <c r="E57" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="F57" s="11"/>
+      <c r="F57" s="19"/>
       <c r="G57" s="1"/>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
@@ -3563,12 +3564,12 @@
       <c r="AL57" s="1"/>
     </row>
     <row r="58" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A58" s="12"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
+      <c r="A58" s="20"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
       <c r="G58" s="1"/>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
@@ -3603,22 +3604,22 @@
       <c r="AL58" s="1"/>
     </row>
     <row r="59" spans="1:38" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="11" t="s">
+      <c r="A59" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B59" s="11" t="s">
+      <c r="B59" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="C59" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="D59" s="13" t="s">
+      <c r="D59" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="E59" s="11" t="s">
+      <c r="E59" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="F59" s="11"/>
+      <c r="F59" s="19"/>
       <c r="G59" s="1"/>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
@@ -3653,12 +3654,12 @@
       <c r="AL59" s="1"/>
     </row>
     <row r="60" spans="1:38" ht="54" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="12"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
+      <c r="A60" s="20"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
       <c r="G60" s="1"/>
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
@@ -3693,22 +3694,22 @@
       <c r="AL60" s="1"/>
     </row>
     <row r="61" spans="1:38" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="11" t="s">
+      <c r="A61" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B61" s="11" t="s">
+      <c r="B61" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="C61" s="13" t="s">
+      <c r="C61" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D61" s="13" t="s">
+      <c r="D61" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E61" s="11" t="s">
+      <c r="E61" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="F61" s="11"/>
+      <c r="F61" s="19"/>
       <c r="G61" s="1"/>
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
@@ -3743,12 +3744,12 @@
       <c r="AL61" s="7"/>
     </row>
     <row r="62" spans="1:38" ht="26" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="12"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
+      <c r="A62" s="20"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
       <c r="G62" s="1"/>
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
@@ -3783,22 +3784,22 @@
       <c r="AL62" s="10"/>
     </row>
     <row r="63" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="11" t="s">
+      <c r="A63" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B63" s="11" t="s">
+      <c r="B63" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="C63" s="13" t="s">
+      <c r="C63" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D63" s="13" t="s">
+      <c r="D63" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E63" s="11" t="s">
+      <c r="E63" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="F63" s="11"/>
+      <c r="F63" s="19"/>
       <c r="G63" s="1"/>
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
@@ -3833,12 +3834,12 @@
       <c r="AL63" s="7"/>
     </row>
     <row r="64" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="12"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12"/>
+      <c r="A64" s="20"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
       <c r="G64" s="1"/>
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
@@ -3873,22 +3874,22 @@
       <c r="AL64" s="10"/>
     </row>
     <row r="65" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="11" t="s">
+      <c r="A65" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B65" s="11" t="s">
+      <c r="B65" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="C65" s="13" t="s">
+      <c r="C65" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D65" s="13" t="s">
+      <c r="D65" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E65" s="11" t="s">
+      <c r="E65" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="F65" s="11"/>
+      <c r="F65" s="19"/>
       <c r="G65" s="1"/>
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
@@ -3923,12 +3924,12 @@
       <c r="AL65" s="7"/>
     </row>
     <row r="66" spans="1:38" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="12"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="12"/>
+      <c r="A66" s="20"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="20"/>
       <c r="G66" s="1"/>
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
@@ -3963,22 +3964,22 @@
       <c r="AL66" s="10"/>
     </row>
     <row r="67" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="11" t="s">
+      <c r="A67" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B67" s="11" t="s">
+      <c r="B67" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="C67" s="13" t="s">
+      <c r="C67" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D67" s="13" t="s">
+      <c r="D67" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E67" s="11" t="s">
+      <c r="E67" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="F67" s="11"/>
+      <c r="F67" s="19"/>
       <c r="G67" s="1"/>
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
@@ -4013,12 +4014,12 @@
       <c r="AL67" s="7"/>
     </row>
     <row r="68" spans="1:38" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="12"/>
-      <c r="B68" s="12"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
+      <c r="A68" s="20"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="20"/>
       <c r="G68" s="1"/>
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
@@ -4093,6 +4094,188 @@
     </row>
   </sheetData>
   <mergeCells count="206">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
     <mergeCell ref="AM7:AM8"/>
     <mergeCell ref="AN7:AN8"/>
     <mergeCell ref="A1:AN1"/>
@@ -4117,188 +4300,6 @@
     <mergeCell ref="F57:F58"/>
     <mergeCell ref="A59:A60"/>
     <mergeCell ref="B59:B60"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
